--- a/assets/disciplinas/LOT2043.xlsx
+++ b/assets/disciplinas/LOT2043.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2018</t>
+    <t>01/01/2022</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -70,13 +70,13 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Apresentar ao aluno as características da profissão, os conceitos básicos envolvidos e as áreas de atuação do Engenheiro Bioquímico, e um panorama do mercado de trabalho de engenharia no Brasil. Mostrar como funciona uma indústria de bioprocesso, envolvendo instalações, tipos de bioprocessos e escala de produção.</t>
+    <t>Apresentar aos alunos a Engenharia Bioquímica, as características da profissão e orientar quanto as atribuições e as áreas de atuação do Engenheiro Bioquímico. Além disso, desenvolver nos alunos uma visão macro dos tipos e etapas de um bioprocesso industrial e, por fim, orientar sobre a atuação do Engenheiro Bioquímico na indústria, pesquisa e ensino, e empreendedorismo e inovação em engenharia.</t>
   </si>
   <si>
     <t>Objectives:</t>
   </si>
   <si>
-    <t>Present to the student the characteristics of the profession, the basic concepts involved and the areas of expertise of the Biochemical Engineer, and an overview of the engineering work market in Brazil. Show how a bioprocessing industry works, involving facilities, types of bioprocesses and production scale.</t>
+    <t>To present to the Biochemical Engineering student the characteristics of the profession and to guide in relation to the attributes and the action areas of the biochemical engineering. Besides, to develop in the students a macro view of types and stages of an industrial bioprocess and, finally, to guide about the action of the biochemical engineering on the industry, research and teaching, and entrepreneurship and innovation in engineering.</t>
   </si>
   <si>
     <t>Docentes responsáveis:</t>
@@ -85,6 +85,9 @@
     <t>101761 - Arnaldo Márcio Ramalho Prata</t>
   </si>
   <si>
+    <t>5817181 - Valdeir Arantes</t>
+  </si>
+  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
@@ -100,13 +103,13 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1. Histórico da Engenharia Bioquímica: interação entre ciências biológicas e a engenha, multidisciplinaridade, peculiaridades dos processos biotecnológicos. 2. Mercado de trabalho da Engenharia do Brasil3. Definições e conceitos – processo enzimático, processo fermentativo genérico, agentes de transformação, biorreator, matéria prima, tipos de substratos, conversão de substrato em produto, tipos de produtos biotecnológicos, recuperação de produtos, entre outros.4. Áreas de atuação do Engenheiro Bioquímico5. A Indústria de Bioprocessos – tipos de indústrias, equipamentos, instalações, principais operações unitárias. 6. Escalas de produção – laboratório, piloto, industrial. 7. Estudo de casos (processos biotecnológicos).8. Visitas supervisionadas – visitas a laboratórios e a indústria de bioprocesso.</t>
+    <t>1.Histórico da Engenharia Bioquímica: interação entre ciências biológicas e a engenha, multidisciplinaridade, peculiaridades dos processos biotecnológicos. 2.Mercado de trabalho da Engenharia do Brasil 3.Atribuições e áreas de atuação do Engenheiro Bioquímico 4.Definições e conceitos – processo enzimático, processo fermentativo genérico, agentes de transformação, biorreator, matéria prima, tipos de substratos, conversão de substrato em produto, tipos de produtos biotecnológicos, recuperação de produtos, entre outros. 5.A Indústria de Bioprocessos – tipos de indústrias, equipamentos, instalações, principais operações unitárias. 6.Escalas de produção – laboratório, piloto, industrial. 7.Estudo de casos (processos biotecnológicos). 8.Empreendedorismo e Inovação em Engenharia.9.Visitas supervisionadas – visitas a laboratórios e a indústria de bioprocesso.</t>
   </si>
   <si>
     <t>Syllabus:</t>
   </si>
   <si>
-    <t>1. History of Biochemical Engineering: interaction between biological sciences and engineering, multidisciplinarity, peculiarities of biotechnological processes.2. Labor market of Engineering in Brazil3. Definitions and concepts - enzymatic process, generic fermentation process, transformation agents, bioreactor, raw material, types of substrates, substrate conversion into product, types of biotechnological products, product recovery, among others.4. Areas of practice of the Biochemical Engineer5. The Bioprocess Industry - types of industries, equipment, facilities, main unit operations.6. Production scales - laboratory, pilot, industrial.7. Case studies (biotechnological processes).8. Supervised visits - visits to laboratories and the bioprocess industry.</t>
+    <t>1.History of the Biochemical Engineering: interaction between biological sciences and engineering, multidisciplinarity, peculiarities of biotechnological processes.2.Job market of Engineering in Brazil3.Attributes and action areas of biochemical engineering4.Definitions and concepts – enzymatic process, general fermentative process, transformation agents, bioreactor, raw material, types of substrates, conversion of substrate into product, types of biotechnological products, products recovery, between others.5.The Bioprocesses Industry – types of industries, equipment, installations, main unit operations6.Production scales – laboratory, pilot, industrial.7.Studies of cases (biotechnological processes).8.Entrepreneurship and Innovation in Engineering.9.Supervised visitation – visits to laboratories and bioprocess industry</t>
   </si>
   <si>
     <t>Avaliação:</t>
@@ -115,19 +118,19 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>Provas escritas; participação e conteúdo de trabalho e seminário;</t>
+    <t>O método utilizado tem por fundamento a Aprendizagem Baseada em Projetos (PBL) que visa desenvolver as competências técnicas relativas ao tema do projeto, bem como competências transversais, tais como: aprender a aprender, trabalho em equipe, relacionamento interpessoal, aspectos de liderança e capacidade de comunicação, dentre outras; exercícios individuais realizados no decorrer da disciplina; exercícios; dinâmicas. Para os projetos, os alunos serão divididos em grupos que desenvolverão um projeto durante o semestre relacionado a aplicações dos conceitos abordados à um processo, produto ou serviço na área de Engenharia de Bioquímica e que relacione com a formação acadêmica e atribuições profissionais do Engenheiro Bioquímico.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>A nota (N) será composta por ao menos uma prova escrita e trabalhos realizados e apresentados durante o semestre. O peso de cada atividade será definido segundo critérios do professor.Nota mínima de aprovação = 5,0</t>
+    <t>A nota (N) será individual e será a média ponderada de componentes do projeto, tais como: Projeto Preliminar, Projeto Final, envolvimento do aluno com o projeto, Avaliação dos Pares, Apresentação de Trabalhos, dentre outros.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média Final = (N + Prova Recuperação)/2Nota Final mínima para aprovação= 5,0</t>
+    <t>Média Final = (N + Prova Recuperação)/2</t>
   </si>
   <si>
     <t>Bibliografia:</t>
@@ -489,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,97 +631,105 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="C16" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+      <c r="C18" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C20" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="60" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
+      <c r="B23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOT2043.xlsx
+++ b/assets/disciplinas/LOT2043.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Apresentar aos alunos a Engenharia Bioquímica, as características da profissão e orientar quanto as atribuições e as áreas de atuação do Engenheiro Bioquímico. Além disso, desenvolver nos alunos uma visão macro dos tipos e etapas de um bioprocesso industrial e, por fim, orientar sobre a atuação do Engenheiro Bioquímico na indústria, pesquisa e ensino, e empreendedorismo e inovação em engenharia.</t>
+    <t>101761 - Arnaldo Márcio Ramalho Prata</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,61 +82,49 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>101761 - Arnaldo Márcio Ramalho Prata</t>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>1. History of Biochemical Engineering 2. Biochemical Engineering: Definitions and Concepts 3. Engineering Job Market 4. Areas of practice of the Biochemical Engineer 5. The Bioprocess Industry 6. Production Scales 7. Case studies (biotechnological processes) 8. Supervised visit.</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>1.History of the Biochemical Engineering: interaction between biological sciences and engineering, multidisciplinarity, peculiarities of biotechnological processes.2.Job market of Engineering in Brazil3.Attributes and action areas of biochemical engineering4.Definitions and concepts – enzymatic process, general fermentative process, transformation agents, bioreactor, raw material, types of substrates, conversion of substrate into product, types of biotechnological products, products recovery, between others.5.The Bioprocesses Industry – types of industries, equipment, installations, main unit operations6.Production scales – laboratory, pilot, industrial.7.Studies of cases (biotechnological processes).8.Entrepreneurship and Innovation in Engineering.9.Supervised visitation – visits to laboratories and bioprocess industry</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
   </si>
   <si>
     <t>5817181 - Valdeir Arantes</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>1. Histórico da Engenharia Bioquímica 2. Engenharia Bioquímica: Definições e conceitos 3. Mercado de trabalho de Engenharia4. Áreas de atuação do Engenheiro Bioquímico5. A Indústria de Bioprocessos 6. Escalas de produção 7. Estudo de casos (processos biotecnológicos)8. Visita supervisionada.</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>1. History of Biochemical Engineering 2. Biochemical Engineering: Definitions and Concepts 3. Engineering Job Market 4. Areas of practice of the Biochemical Engineer 5. The Bioprocess Industry 6. Production Scales 7. Case studies (biotechnological processes) 8. Supervised visit.</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>1.Histórico da Engenharia Bioquímica: interação entre ciências biológicas e a engenha, multidisciplinaridade, peculiaridades dos processos biotecnológicos. 2.Mercado de trabalho da Engenharia do Brasil 3.Atribuições e áreas de atuação do Engenheiro Bioquímico 4.Definições e conceitos – processo enzimático, processo fermentativo genérico, agentes de transformação, biorreator, matéria prima, tipos de substratos, conversão de substrato em produto, tipos de produtos biotecnológicos, recuperação de produtos, entre outros. 5.A Indústria de Bioprocessos – tipos de indústrias, equipamentos, instalações, principais operações unitárias. 6.Escalas de produção – laboratório, piloto, industrial. 7.Estudo de casos (processos biotecnológicos). 8.Empreendedorismo e Inovação em Engenharia.9.Visitas supervisionadas – visitas a laboratórios e a indústria de bioprocesso.</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>1.History of the Biochemical Engineering: interaction between biological sciences and engineering, multidisciplinarity, peculiarities of biotechnological processes.2.Job market of Engineering in Brazil3.Attributes and action areas of biochemical engineering4.Definitions and concepts – enzymatic process, general fermentative process, transformation agents, bioreactor, raw material, types of substrates, conversion of substrate into product, types of biotechnological products, products recovery, between others.5.The Bioprocesses Industry – types of industries, equipment, installations, main unit operations6.Production scales – laboratory, pilot, industrial.7.Studies of cases (biotechnological processes).8.Entrepreneurship and Innovation in Engineering.9.Supervised visitation – visits to laboratories and bioprocess industry</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>O método utilizado tem por fundamento a Aprendizagem Baseada em Projetos (PBL) que visa desenvolver as competências técnicas relativas ao tema do projeto, bem como competências transversais, tais como: aprender a aprender, trabalho em equipe, relacionamento interpessoal, aspectos de liderança e capacidade de comunicação, dentre outras; exercícios individuais realizados no decorrer da disciplina; exercícios; dinâmicas. Para os projetos, os alunos serão divididos em grupos que desenvolverão um projeto durante o semestre relacionado a aplicações dos conceitos abordados à um processo, produto ou serviço na área de Engenharia de Bioquímica e que relacione com a formação acadêmica e atribuições profissionais do Engenheiro Bioquímico.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A nota (N) será individual e será a média ponderada de componentes do projeto, tais como: Projeto Preliminar, Projeto Final, envolvimento do aluno com o projeto, Avaliação dos Pares, Apresentação de Trabalhos, dentre outros.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Média Final = (N + Prova Recuperação)/2</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>Schmidell, W.; Lima, U. A.; Aquarone, E.; Borzani, W. Biotecnologia Industrial – EngenhariaBioquímica, vol. 2, São Paulo: Edgard Blücher, 2001.Shuler, L. M.; Kargi, F. Bioprocess Engineering – Basic Concepts. Second edition. NewJersey: PrenticeHall,2002.Arigos atuais relacionaos com o tema de Engenharia Bioquímica</t>
   </si>
 </sst>
 </file>
@@ -492,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -623,34 +611,40 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" customHeight="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -661,30 +655,30 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="120" customHeight="1">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="60" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -699,7 +693,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -708,28 +702,6 @@
       </c>
       <c r="C21" s="3" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="120" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOT2043.xlsx
+++ b/assets/disciplinas/LOT2043.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,21 +70,30 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Apresentar aos alunos a Engenharia Bioquímica, as características da profissão e orientar quanto as atribuições e as áreas de atuação do Engenheiro Bioquímico. Além disso, desenvolver nos alunos uma visão macro dos tipos e etapas de um bioprocesso industrial e, por fim, orientar sobre a atuação do Engenheiro Bioquímico na indústria, pesquisa e ensino, e empreendedorismo e inovação em engenharia.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>To present to the Biochemical Engineering student the characteristics of the profession and to guide in relation to the attributes and the action areas of the biochemical engineering. Besides, to develop in the students a macro view of types and stages of an industrial bioprocess and, finally, to guide about the action of the biochemical engineering on the industry, research and teaching, and entrepreneurship and innovation in engineering.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>101761 - Arnaldo Márcio Ramalho Prata</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>To present to the Biochemical Engineering student the characteristics of the profession and to guide in relation to the attributes and the action areas of the biochemical engineering. Besides, to develop in the students a macro view of types and stages of an industrial bioprocess and, finally, to guide about the action of the biochemical engineering on the industry, research and teaching, and entrepreneurship and innovation in engineering.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>5817181 - Valdeir Arantes</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>1. Histórico da Engenharia Bioquímica 2. Engenharia Bioquímica: Definições e conceitos 3. Mercado de trabalho de Engenharia4. Áreas de atuação do Engenheiro Bioquímico5. A Indústria de Bioprocessos 6. Escalas de produção 7. Estudo de casos (processos biotecnológicos)8. Visita supervisionada.</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
@@ -94,6 +103,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1.Histórico da Engenharia Bioquímica: interação entre ciências biológicas e a engenha, multidisciplinaridade, peculiaridades dos processos biotecnológicos. 2.Mercado de trabalho da Engenharia do Brasil 3.Atribuições e áreas de atuação do Engenheiro Bioquímico 4.Definições e conceitos – processo enzimático, processo fermentativo genérico, agentes de transformação, biorreator, matéria prima, tipos de substratos, conversão de substrato em produto, tipos de produtos biotecnológicos, recuperação de produtos, entre outros. 5.A Indústria de Bioprocessos – tipos de indústrias, equipamentos, instalações, principais operações unitárias. 6.Escalas de produção – laboratório, piloto, industrial. 7.Estudo de casos (processos biotecnológicos). 8.Empreendedorismo e Inovação em Engenharia.9.Visitas supervisionadas – visitas a laboratórios e a indústria de bioprocesso.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,25 +118,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>5817181 - Valdeir Arantes</t>
+    <t>O método utilizado tem por fundamento a Aprendizagem Baseada em Projetos (PBL) que visa desenvolver as competências técnicas relativas ao tema do projeto, bem como competências transversais, tais como: aprender a aprender, trabalho em equipe, relacionamento interpessoal, aspectos de liderança e capacidade de comunicação, dentre outras; exercícios individuais realizados no decorrer da disciplina; exercícios; dinâmicas. Para os projetos, os alunos serão divididos em grupos que desenvolverão um projeto durante o semestre relacionado a aplicações dos conceitos abordados à um processo, produto ou serviço na área de Engenharia de Bioquímica e que relacione com a formação acadêmica e atribuições profissionais do Engenheiro Bioquímico.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>O método utilizado tem por fundamento a Aprendizagem Baseada em Projetos (PBL) que visa desenvolver as competências técnicas relativas ao tema do projeto, bem como competências transversais, tais como: aprender a aprender, trabalho em equipe, relacionamento interpessoal, aspectos de liderança e capacidade de comunicação, dentre outras; exercícios individuais realizados no decorrer da disciplina; exercícios; dinâmicas. Para os projetos, os alunos serão divididos em grupos que desenvolverão um projeto durante o semestre relacionado a aplicações dos conceitos abordados à um processo, produto ou serviço na área de Engenharia de Bioquímica e que relacione com a formação acadêmica e atribuições profissionais do Engenheiro Bioquímico.</t>
+    <t>A nota (N) será individual e será a média ponderada de componentes do projeto, tais como: Projeto Preliminar, Projeto Final, envolvimento do aluno com o projeto, Avaliação dos Pares, Apresentação de Trabalhos, dentre outros.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A nota (N) será individual e será a média ponderada de componentes do projeto, tais como: Projeto Preliminar, Projeto Final, envolvimento do aluno com o projeto, Avaliação dos Pares, Apresentação de Trabalhos, dentre outros.</t>
+    <t>Média Final = (N + Prova Recuperação)/2</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Média Final = (N + Prova Recuperação)/2</t>
+    <t>Schmidell, W.; Lima, U. A.; Aquarone, E.; Borzani, W. Biotecnologia Industrial – EngenhariaBioquímica, vol. 2, São Paulo: Edgard Blücher, 2001.Shuler, L. M.; Kargi, F. Bioprocess Engineering – Basic Concepts. Second edition. NewJersey: PrenticeHall,2002.Arigos atuais relacionaos com o tema de Engenharia Bioquímica</t>
   </si>
 </sst>
 </file>
@@ -480,13 +492,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -611,40 +623,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -655,30 +661,30 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -693,7 +699,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -702,6 +708,28 @@
       </c>
       <c r="C21" s="3" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="60" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
